--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -22,24 +22,72 @@
     <t>Format</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
     <t>distances_store.csv</t>
   </si>
   <si>
     <t>A matrix of 32X 47 with distance between each school and hospital</t>
   </si>
   <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Created using </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>distance_finder.py</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">By running the </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>distance_finder.py</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> file</t>
+    </r>
+  </si>
+  <si>
     <t>hospital_addresses.csv</t>
   </si>
   <si>
     <t>A list of addresses for all 47 hospitals</t>
   </si>
   <si>
+    <t>From the provided files for the project</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>hospital_licensed_beds.csv</t>
   </si>
   <si>
     <t>A list for the number of beds for all 47 hospitals</t>
   </si>
   <si>
+    <t>https://www.health.pa.gov/topics/HealthStatistics/Pages/health-statistics.aspx</t>
+  </si>
+  <si>
+    <t>Link-&gt; Health Statistics -&gt;Hospital Reports-&gt; Full Reports-&gt; 2019</t>
+  </si>
+  <si>
     <t>hospital_fix.csv</t>
   </si>
   <si>
@@ -58,12 +106,21 @@
     <t>Total school population for all 32 schools</t>
   </si>
   <si>
+    <t>Public School Review - Profiles of USA Public Schools</t>
+  </si>
+  <si>
+    <t>We typed in the name of the school to the find school population</t>
+  </si>
+  <si>
     <t>school_populations_01.csv</t>
   </si>
   <si>
     <t>Infected school population for all 32 schools, infection rate = 0.01</t>
   </si>
   <si>
+    <t>Created by multiplying school populatio by infection rate</t>
+  </si>
+  <si>
     <t>school_populations_05.csv</t>
   </si>
   <si>
@@ -92,13 +149,37 @@
   </si>
   <si>
     <t>List of all 32 schools</t>
+  </si>
+  <si>
+    <t>0.01_model1_results_store.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This contains the number of students going from each school to which hospital. There is a separate file for each infection rate. </t>
+  </si>
+  <si>
+    <t>Created by running the dabp_final_code_py file</t>
+  </si>
+  <si>
+    <t>0.01_model1_total_mileage.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This contains the total distance travelled from each school to hospital for model 1. There is a separate file for each infection rate. </t>
+  </si>
+  <si>
+    <t>0.01_model2_results_store.csv</t>
+  </si>
+  <si>
+    <t>0.01_model2_total_mileage.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This contains the total distance travelled from each school to hospital model 2. There is a separate file for each infection rate. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -107,6 +188,18 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -132,6 +225,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,8 +455,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.43"/>
-    <col customWidth="1" min="2" max="2" width="24.29"/>
+    <col customWidth="1" min="2" max="2" width="27.86"/>
     <col customWidth="1" min="3" max="3" width="57.57"/>
+    <col customWidth="1" min="4" max="4" width="66.14"/>
+    <col customWidth="1" min="5" max="5" width="56.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -364,16 +471,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -381,10 +500,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -392,10 +517,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -403,10 +534,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -414,9 +551,15 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -425,10 +568,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -436,10 +585,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -447,10 +602,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -458,10 +619,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -469,10 +636,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -480,10 +653,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -491,13 +670,93 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D7"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>